--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>Number of Rooms in Hotels and Hotel-type enterprises in Tianeti Municipality</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Three and more places</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -60,7 +63,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Data is confidential or unavailable.</t>
+      <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
     </r>
   </si>
 </sst>
@@ -517,7 +520,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,14 +647,14 @@
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
@@ -671,55 +674,55 @@
       <c r="J5" s="9">
         <v>1</v>
       </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
+      <c r="K5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -806,7 +809,7 @@
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="13"/>

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDFA484-D00D-4B57-B333-6EECEBAC1C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tianeti" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Number of Rooms in Hotels and Hotel-type enterprises in Tianeti Municipality</t>
   </si>
@@ -66,11 +67,14 @@
       <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
     </r>
   </si>
+  <si>
+    <t>...</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="#\ ##0"/>
@@ -193,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -208,30 +212,36 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,7 +249,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,12 +526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -529,24 +537,24 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +571,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5">
         <v>2010</v>
@@ -601,8 +609,14 @@
       <c r="M3" s="5">
         <v>2021</v>
       </c>
+      <c r="N3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -642,8 +656,14 @@
       <c r="M4" s="7">
         <v>12</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -683,8 +703,14 @@
       <c r="M5" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="N5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
@@ -724,12 +750,18 @@
       <c r="M6" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="N6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="9">
@@ -765,68 +797,79 @@
       <c r="M7" s="9">
         <v>6</v>
       </c>
+      <c r="N7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="9">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="14">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="14">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14">
         <v>15</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="14">
         <v>15</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="14">
         <v>16</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="14">
         <v>17</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="14">
         <v>17</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="14">
         <v>17</v>
       </c>
-      <c r="K8" s="9">
-        <v>9</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="14">
+        <v>9</v>
+      </c>
+      <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="14">
         <v>6</v>
       </c>
+      <c r="N8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
+++ b/municipal/ENG/Hotels/Number of Rooms in Hotels and Hotel-type enterprises/Mtskheta-Mtianeti/Tianeti Municipality.xlsx
@@ -2,15 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDFA484-D00D-4B57-B333-6EECEBAC1C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\1.1 Number of Rooms in Hotels and Hotel-type enterprises\Mtskheta-Mtianeti\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D293A6B9-1331-4E7D-8AF2-C42BB2A86B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tianeti" sheetId="1" r:id="rId1"/>
+    <sheet name="Tianeti" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
-  <si>
-    <t>Number of Rooms in Hotels and Hotel-type enterprises in Tianeti Municipality</t>
-  </si>
-  <si>
-    <t>(Unit)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>* Legal and individual enterprises registered in accordance with the Georgian legislation (including local units and branches).</t>
+  </si>
+  <si>
+    <t>(Declared data)</t>
+  </si>
+  <si>
+    <t>Number of rooms in hotels and hotel-type enterprises* in Tianeti municipality</t>
+  </si>
+  <si>
+    <t>(unit)</t>
   </si>
   <si>
     <t>Total number of rooms</t>
@@ -41,17 +55,13 @@
   </si>
   <si>
     <t>Three and more places</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -60,15 +70,12 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> „ ...“ Data is confidential or unavailable.</t>
+      <t xml:space="preserve"> "…" - data is confidential or unavailable.</t>
     </r>
-  </si>
-  <si>
-    <t>...</t>
   </si>
 </sst>
 </file>
@@ -76,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="###0"/>
-    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="###0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,21 +106,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,60 +119,37 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -192,60 +163,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -310,9 +307,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -345,9 +342,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -527,36 +524,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="20"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -570,308 +572,343 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>2010</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="7">
         <v>2011</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="7">
         <v>2012</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="7">
         <v>2013</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F4" s="7">
         <v>2014</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G4" s="7">
         <v>2015</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H4" s="7">
         <v>2016</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I4" s="7">
         <v>2017</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J4" s="7">
         <v>2018</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K4" s="7">
         <v>2019</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L4" s="7">
         <v>2020</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M4" s="7">
         <v>2021</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N4" s="6">
         <v>2022</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O4" s="6">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>10</v>
+      </c>
+      <c r="O5" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <v>12</v>
+      </c>
+      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="H8" s="11">
         <v>9</v>
       </c>
-      <c r="C4" s="7">
+      <c r="I8" s="11">
+        <v>9</v>
+      </c>
+      <c r="J8" s="11">
+        <v>9</v>
+      </c>
+      <c r="K8" s="14">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17">
+        <v>12</v>
+      </c>
+      <c r="D9" s="17">
+        <v>9</v>
+      </c>
+      <c r="E9" s="17">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7">
-        <v>27</v>
-      </c>
-      <c r="I4" s="7">
-        <v>27</v>
-      </c>
-      <c r="J4" s="7">
-        <v>27</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="F9" s="17">
+        <v>15</v>
+      </c>
+      <c r="G9" s="17">
         <v>16</v>
       </c>
-      <c r="L4" s="7">
-        <v>12</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="H9" s="17">
+        <v>17</v>
+      </c>
+      <c r="I9" s="17">
+        <v>17</v>
+      </c>
+      <c r="J9" s="17">
+        <v>17</v>
+      </c>
+      <c r="K9" s="16">
         <v>9</v>
       </c>
-      <c r="O4" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>2</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="L9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>8</v>
+      </c>
+      <c r="O9" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9">
-        <v>9</v>
-      </c>
-      <c r="I7" s="9">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9">
-        <v>9</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="9">
-        <v>6</v>
-      </c>
-      <c r="M7" s="9">
-        <v>6</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14">
-        <v>9</v>
-      </c>
-      <c r="E8" s="14">
-        <v>15</v>
-      </c>
-      <c r="F8" s="14">
-        <v>15</v>
-      </c>
-      <c r="G8" s="14">
-        <v>16</v>
-      </c>
-      <c r="H8" s="14">
-        <v>17</v>
-      </c>
-      <c r="I8" s="14">
-        <v>17</v>
-      </c>
-      <c r="J8" s="14">
-        <v>17</v>
-      </c>
-      <c r="K8" s="14">
-        <v>9</v>
-      </c>
-      <c r="L8" s="14">
-        <v>6</v>
-      </c>
-      <c r="M8" s="14">
-        <v>6</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>